--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P32_trail5 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P32_trail5 Features.xlsx
@@ -4805,7 +4805,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4816,29 +4816,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4859,115 +4857,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4984,72 +4972,66 @@
         <v>1.792371306882651e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-1.93175096699842</v>
+        <v>1.237151059732457e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>6.839396578939347</v>
+        <v>1.922791320981191e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.237151059732457e-06</v>
+        <v>0.07947703281436995</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.922791320981191e-06</v>
+        <v>0.3885663822228736</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.07947703281436995</v>
+        <v>0.1568872637066031</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3885663822228736</v>
+        <v>1.913714733802848</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1568872637066031</v>
+        <v>3.019731061935466</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.939005286817098</v>
+        <v>6.165137359769209</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>3.019731061935466</v>
+        <v>1.351844285348445e-17</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>6.165137359769209</v>
+        <v>10432428700.20353</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.351844285348445e-17</v>
+        <v>1.156487764525553e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>10432428700.20353</v>
+        <v>1471.287414340517</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.156487764525553e-08</v>
+        <v>6.675931427518105e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>1471.287414340517</v>
+        <v>8.443927199161109</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>6.675931427518105e-05</v>
+        <v>1.508775462952447</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.443927199161109</v>
+        <v>0.004759932868810853</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.508775462952447</v>
+        <v>5.985980895019574</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.004759932868810853</v>
+        <v>0.962160061973086</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>5.985980895019574</v>
+        <v>0.8289545679517861</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.962160061973086</v>
+        <v>182</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.8289545679517861</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>182</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>8.070280934308562</v>
       </c>
     </row>
@@ -5064,72 +5046,66 @@
         <v>1.450460535309626e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.6931157168160853</v>
+        <v>8.499078708396696e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.9975880903376697</v>
+        <v>1.933577724284643e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>8.499078708396696e-07</v>
+        <v>0.05342016565083928</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.933577724284643e-06</v>
+        <v>0.3421486359870441</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.05342016565083928</v>
+        <v>0.1195971754900901</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3421486359870441</v>
+        <v>1.91349805647311</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1195971754900901</v>
+        <v>2.823452129708056</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.936662572982142</v>
+        <v>6.128306518059784</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.823452129708056</v>
+        <v>1.507930014911237e-17</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>6.128306518059784</v>
+        <v>9344821260.346048</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.507930014911237e-17</v>
+        <v>1.290609278818335e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>9344821260.346048</v>
+        <v>1316.810205610527</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.290609278818335e-08</v>
+        <v>0.0001073532744879246</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>1316.810205610527</v>
+        <v>10.54773036882333</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001073532744879246</v>
+        <v>1.135146515116764</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>10.54773036882333</v>
+        <v>0.0119435473223467</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.135146515116764</v>
+        <v>4.79348769183867</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.0119435473223467</v>
+        <v>0.9610055887321157</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>4.79348769183867</v>
+        <v>0.9008539549871029</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9610055887321157</v>
+        <v>138</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.9008539549871029</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>138</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>5.329496160572305</v>
       </c>
     </row>
@@ -5144,72 +5120,66 @@
         <v>1.312818104633091e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.08514905813944969</v>
+        <v>5.752701835042296e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.169775727059497</v>
+        <v>1.938872410445084e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>5.752701835042296e-07</v>
+        <v>0.02388236810004929</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.938872410445084e-06</v>
+        <v>0.2682793960790844</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.02388236810004929</v>
+        <v>0.07234583163270789</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2682793960790844</v>
+        <v>1.914041847089991</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.07234583163270789</v>
+        <v>2.858891069233849</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.940600651952612</v>
+        <v>5.518690537847005</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.858891069233849</v>
+        <v>1.623938138366835e-17</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>5.518690537847005</v>
+        <v>8444886155.61688</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.623938138366835e-17</v>
+        <v>1.427006565401987e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>8444886155.61688</v>
+        <v>1158.129382119274</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.427006565401987e-08</v>
+        <v>0.000129662067089122</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>1158.129382119274</v>
+        <v>11.34038893180077</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.000129662067089122</v>
+        <v>1.13534431533522</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>11.34038893180077</v>
+        <v>0.01667511507980382</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.13534431533522</v>
+        <v>4.230147583790836</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01667511507980382</v>
+        <v>0.9612680055800356</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>4.230147583790836</v>
+        <v>1.031189529724011</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9612680055800356</v>
+        <v>125</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.031189529724011</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>125</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>4.299153188994946</v>
       </c>
     </row>
@@ -5224,72 +5194,66 @@
         <v>1.285147783226293e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.008801084803254786</v>
+        <v>3.900394938580214e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.378450370010198</v>
+        <v>1.940271023263389e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>3.900394938580214e-07</v>
+        <v>-0.0009575651136414652</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.940271023263389e-06</v>
+        <v>0.1937072946191323</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.0009575651136414652</v>
+        <v>0.03742206242711089</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1937072946191323</v>
+        <v>1.920378275102432</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.03742206242711089</v>
+        <v>2.843351651385694</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.94458148155215</v>
+        <v>5.239178379566185</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.843351651385694</v>
+        <v>1.801835727586611e-17</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>5.239178379566185</v>
+        <v>7602088873.391782</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.801835727586611e-17</v>
+        <v>1.587383366381551e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>7602088873.391782</v>
+        <v>1041.312493494757</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.587383366381551e-08</v>
+        <v>0.0001348879472584447</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>1041.312493494757</v>
+        <v>9.569184716243875</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001348879472584447</v>
+        <v>1.286674490582466</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.569184716243875</v>
+        <v>0.01235159438736132</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.286674490582466</v>
+        <v>4.014381253161783</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01235159438736132</v>
+        <v>0.9604554475994964</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>4.014381253161783</v>
+        <v>1.040050637812438</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9604554475994964</v>
+        <v>137</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.040050637812438</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>137</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>2.890069422181054</v>
       </c>
     </row>
@@ -5304,72 +5268,66 @@
         <v>1.300244969460702e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.002355203649373733</v>
+        <v>3.919541054322554e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.384398043456444</v>
+        <v>1.938932033692343e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>3.919541054322554e-07</v>
+        <v>-0.01845378494141826</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.938932033692343e-06</v>
+        <v>0.1350459299572589</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.01845378494141826</v>
+        <v>0.01853037181877153</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1350459299572589</v>
+        <v>1.92296114472375</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.01853037181877153</v>
+        <v>2.994618918578869</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.950116509766187</v>
+        <v>5.169690081218642</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.994618918578869</v>
+        <v>1.797853896064967e-17</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>5.169690081218642</v>
+        <v>7477752948.674155</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.797853896064967e-17</v>
+        <v>1.61029341240693e-08</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>7477752948.674155</v>
+        <v>1005.302172492754</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.61029341240693e-08</v>
+        <v>0.000126646001110876</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>1005.302172492754</v>
+        <v>8.560367702090193</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.000126646001110876</v>
+        <v>1.345189497773517</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.560367702090193</v>
+        <v>0.009280605688269444</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.345189497773517</v>
+        <v>3.858001163479626</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.009280605688269444</v>
+        <v>0.9604976449670924</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.858001163479626</v>
+        <v>1.056684082153456</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9604976449670924</v>
+        <v>118</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.056684082153456</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>118</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>2.106497301221919</v>
       </c>
     </row>
@@ -5384,72 +5342,66 @@
         <v>1.324012781279509e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.01630469282265787</v>
+        <v>3.92990229210052e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.417803851735611</v>
+        <v>1.935690566612632e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>3.92990229210052e-07</v>
+        <v>-0.02999794902011473</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.935690566612632e-06</v>
+        <v>0.09297899228245278</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.02999794902011473</v>
+        <v>0.009523142364809086</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.09297899228245278</v>
+        <v>1.91747555166085</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.009523142364809086</v>
+        <v>2.784303403766134</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.943856870756457</v>
+        <v>5.10042743368377</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.784303403766134</v>
+        <v>2.313115274328272e-17</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>5.10042743368377</v>
+        <v>5606855046.07225</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>2.313115274328272e-17</v>
+        <v>2.138606833076953e-08</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>5606855046.07225</v>
+        <v>727.1699663194398</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>2.138606833076953e-08</v>
+        <v>0.0001245092842489602</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>727.1699663194398</v>
+        <v>8.7963703512495</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001245092842489602</v>
+        <v>1.325454305164311</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.7963703512495</v>
+        <v>0.009634046733131571</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.325454305164311</v>
+        <v>3.64009300618422</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.009634046733131571</v>
+        <v>0.9614265422810901</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.64009300618422</v>
+        <v>1.122071814111219</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9614265422810901</v>
+        <v>98</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.122071814111219</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>98</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>1.813535070640009</v>
       </c>
     </row>
@@ -5826,7 +5778,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.474801213290085</v>
+        <v>1.428660551618913</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.40815797031534</v>
@@ -5915,7 +5867,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.487281472812614</v>
+        <v>1.433386400296309</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.056448472029007</v>
@@ -6004,7 +5956,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.479483324896161</v>
+        <v>1.431464883024641</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.418842132435866</v>
@@ -6093,7 +6045,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.487800573518656</v>
+        <v>1.438163650206484</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.204917853164963</v>
@@ -6182,7 +6134,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.507416841073212</v>
+        <v>1.455689861434708</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.404810686731989</v>
@@ -6271,7 +6223,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.497732004598076</v>
+        <v>1.447393227925541</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.320213061621886</v>
@@ -6360,7 +6312,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.490517064926711</v>
+        <v>1.441477382500738</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.38286265529428</v>
@@ -6449,7 +6401,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.494068072228669</v>
+        <v>1.441201880880451</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.394209577298561</v>
@@ -6538,7 +6490,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.472059533745091</v>
+        <v>1.425364637197116</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.361269391496911</v>
@@ -6627,7 +6579,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.475381276854727</v>
+        <v>1.425587952565491</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.196082375649512</v>
@@ -6716,7 +6668,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.495281230019192</v>
+        <v>1.44342045565285</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.082884455210934</v>
@@ -6805,7 +6757,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.511367903685764</v>
+        <v>1.466016489918472</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.169875825633982</v>
@@ -6894,7 +6846,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.524095736843898</v>
+        <v>1.480019142192515</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.22548281846405</v>
@@ -6983,7 +6935,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.524431049233284</v>
+        <v>1.482952438671842</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.17259297407412</v>
@@ -7072,7 +7024,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.585021215970181</v>
+        <v>1.540034296951496</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.647228025042063</v>
@@ -7161,7 +7113,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.581108442124605</v>
+        <v>1.535494792750525</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.969886433053401</v>
@@ -7250,7 +7202,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.567117343390458</v>
+        <v>1.514564391795852</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.790413698401363</v>
@@ -7339,7 +7291,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.588444593277157</v>
+        <v>1.523807546236602</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.955741651083991</v>
@@ -7428,7 +7380,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.589694347456327</v>
+        <v>1.521828101603418</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.94441420363769</v>
@@ -7517,7 +7469,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.566207070296876</v>
+        <v>1.500945516603071</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.873846713503313</v>
@@ -7606,7 +7558,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.568198160718182</v>
+        <v>1.505863824085999</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.664244991376545</v>
@@ -7695,7 +7647,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.572520408030236</v>
+        <v>1.511442129079926</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.641333398813661</v>
@@ -7784,7 +7736,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.57364672103275</v>
+        <v>1.505340446392753</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.658272620274749</v>
@@ -7873,7 +7825,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.594846083617192</v>
+        <v>1.514943870602857</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.988989362941497</v>
@@ -7962,7 +7914,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.593014147348479</v>
+        <v>1.512406879304629</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.176306993143859</v>
@@ -8051,7 +8003,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.595300054402755</v>
+        <v>1.517425034055514</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.727900284410288</v>
@@ -8140,7 +8092,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.591492834178871</v>
+        <v>1.510951125472537</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.148358218768196</v>
@@ -8229,7 +8181,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.590073657237544</v>
+        <v>1.510093709834168</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.830036762817457</v>
@@ -8318,7 +8270,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.5809411580429</v>
+        <v>1.501260722008827</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.050626477303419</v>
@@ -8407,7 +8359,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.575873615659355</v>
+        <v>1.494869641238648</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.966778296528842</v>
@@ -8496,7 +8448,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.587344163137144</v>
+        <v>1.498537473714898</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.964421723263291</v>
@@ -8585,7 +8537,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.592902895642455</v>
+        <v>1.512479393758034</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.054666298551099</v>
@@ -8674,7 +8626,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.605730054513432</v>
+        <v>1.51711833329294</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.361285511944118</v>
@@ -8763,7 +8715,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.612114186164513</v>
+        <v>1.513030522397085</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.710028099527657</v>
@@ -8852,7 +8804,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.630278112145461</v>
+        <v>1.529290370397697</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.005473535924864</v>
@@ -8941,7 +8893,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.633751406760641</v>
+        <v>1.531175028666894</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.306880559123111</v>
@@ -9030,7 +8982,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.629301263991706</v>
+        <v>1.532211238565277</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.435800376305574</v>
@@ -9119,7 +9071,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.634776955254919</v>
+        <v>1.542555843742274</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.95723336563895</v>
@@ -9208,7 +9160,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.642527935276578</v>
+        <v>1.558760749274208</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.40700447353191</v>
@@ -9297,7 +9249,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.661568228486424</v>
+        <v>1.570254897271589</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.552860523730345</v>
@@ -9386,7 +9338,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.657850966666397</v>
+        <v>1.566901858219172</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.588084026446186</v>
@@ -9475,7 +9427,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.662604086748416</v>
+        <v>1.570701925592082</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.747450910912158</v>
@@ -9564,7 +9516,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.660964560193321</v>
+        <v>1.571573809743248</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.656467123005845</v>
@@ -9653,7 +9605,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.667739490718655</v>
+        <v>1.582067933607232</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.358283745811753</v>
@@ -9742,7 +9694,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.674465578067522</v>
+        <v>1.585535822825464</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.326844928338191</v>
@@ -9831,7 +9783,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.682396320854391</v>
+        <v>1.602977956879881</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.394341465087932</v>
@@ -9920,7 +9872,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.681523525189115</v>
+        <v>1.59793719585143</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.578558115407768</v>
@@ -10009,7 +9961,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.675857858430318</v>
+        <v>1.596482580083203</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.806354469314421</v>
@@ -10098,7 +10050,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.660601114257337</v>
+        <v>1.60573011297459</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.19032093199926</v>
@@ -10187,7 +10139,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.664845571695925</v>
+        <v>1.612814267331669</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.195122036259918</v>
@@ -10276,7 +10228,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.658902395411499</v>
+        <v>1.602731736697647</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.240378569976137</v>
@@ -10562,7 +10514,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.504370384809459</v>
+        <v>1.439193361954361</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.486810467946892</v>
@@ -10651,7 +10603,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.502365098157246</v>
+        <v>1.432835354632545</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.119737821407827</v>
@@ -10740,7 +10692,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.488136047610515</v>
+        <v>1.42876576755963</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.49623958883172</v>
@@ -10829,7 +10781,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.484858734517971</v>
+        <v>1.429975423239364</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.48058429137418</v>
@@ -10918,7 +10870,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.495351573618238</v>
+        <v>1.438261809741507</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.447698573910104</v>
@@ -11007,7 +10959,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.477750083388045</v>
+        <v>1.421912105901655</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.419711097831746</v>
@@ -11096,7 +11048,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.470590046213708</v>
+        <v>1.413874028653679</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.373635467286312</v>
@@ -11185,7 +11137,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.477086604574119</v>
+        <v>1.416163131491237</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.36104217257036</v>
@@ -11274,7 +11226,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.460671704660332</v>
+        <v>1.404894950552076</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.417707466841573</v>
@@ -11363,7 +11315,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.473243581253472</v>
+        <v>1.414130536527422</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.193150169530715</v>
@@ -11452,7 +11404,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.485668158414516</v>
+        <v>1.427111452006299</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.114408841300739</v>
@@ -11541,7 +11493,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.499327866297439</v>
+        <v>1.449143478749924</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.141883535189928</v>
@@ -11630,7 +11582,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.50550845136494</v>
+        <v>1.459233307011134</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.269603408367308</v>
@@ -11719,7 +11671,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.511928862100156</v>
+        <v>1.465743369263384</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.181673324719607</v>
@@ -11808,7 +11760,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.572828857653233</v>
+        <v>1.515411579883787</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.379201269602809</v>
@@ -11897,7 +11849,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.579914912712103</v>
+        <v>1.512736568157878</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.63678544217411</v>
@@ -11986,7 +11938,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.5852487277589</v>
+        <v>1.507561399041706</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.494707835607856</v>
@@ -12075,7 +12027,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.631694144756318</v>
+        <v>1.535357815474338</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.642112279958507</v>
@@ -12164,7 +12116,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.634139592931627</v>
+        <v>1.531609599689467</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.550113243364402</v>
@@ -12253,7 +12205,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.633289600554912</v>
+        <v>1.530092746336971</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.446459127744662</v>
@@ -12342,7 +12294,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.649056496328835</v>
+        <v>1.540742943638896</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.055543048190568</v>
@@ -12431,7 +12383,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.654716939814262</v>
+        <v>1.546806216081337</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.249847894352253</v>
@@ -12520,7 +12472,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.642812709829234</v>
+        <v>1.527546855580528</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.088185055557521</v>
@@ -12609,7 +12561,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.647435476036472</v>
+        <v>1.523956108034631</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.186481489306915</v>
@@ -12698,7 +12650,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.620497515168241</v>
+        <v>1.504232347304945</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.177913820258843</v>
@@ -12787,7 +12739,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.631829019937292</v>
+        <v>1.513676916286194</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.771060681571976</v>
@@ -12876,7 +12828,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.628587373501181</v>
+        <v>1.505499838201679</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.896156703216689</v>
@@ -12965,7 +12917,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.626967802610422</v>
+        <v>1.505778621080387</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.780048109580846</v>
@@ -13054,7 +13006,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.625976628960899</v>
+        <v>1.505488433423895</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.857044831447266</v>
@@ -13143,7 +13095,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.614528724740645</v>
+        <v>1.495575196911055</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.847128440080362</v>
@@ -13232,7 +13184,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.608738366045404</v>
+        <v>1.496245248463209</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.089583202532445</v>
@@ -13321,7 +13273,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.617236159105943</v>
+        <v>1.512689524584105</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.052779287199664</v>
@@ -13410,7 +13362,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.618154487888405</v>
+        <v>1.507555097036782</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.918095159232822</v>
@@ -13499,7 +13451,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.616428027025369</v>
+        <v>1.49694397603951</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.97550224490485</v>
@@ -13588,7 +13540,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.618321089862492</v>
+        <v>1.499314849362169</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.952920542731369</v>
@@ -13677,7 +13629,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.615083607589481</v>
+        <v>1.500849732337685</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.964775311426108</v>
@@ -13766,7 +13718,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.614014436235476</v>
+        <v>1.501620939244614</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.879150355638846</v>
@@ -13855,7 +13807,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.625424941556455</v>
+        <v>1.5135186008052</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.756354730914686</v>
@@ -13944,7 +13896,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.633381061542184</v>
+        <v>1.526767708929185</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.86867330208645</v>
@@ -14033,7 +13985,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.662351549743973</v>
+        <v>1.541654093807993</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.310808754833812</v>
@@ -14122,7 +14074,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.660195005669305</v>
+        <v>1.539221951611784</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.194235632837576</v>
@@ -14211,7 +14163,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.657952592494364</v>
+        <v>1.535625876420439</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.084548118477218</v>
@@ -14300,7 +14252,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.648329337559372</v>
+        <v>1.527232665482391</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.859730218895851</v>
@@ -14389,7 +14341,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.65415783286555</v>
+        <v>1.537815257111731</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.886440445237995</v>
@@ -14478,7 +14430,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.657712095250216</v>
+        <v>1.544873865187154</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.323500680791359</v>
@@ -14567,7 +14519,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.667505677420483</v>
+        <v>1.55980095340084</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.133321836571691</v>
@@ -14656,7 +14608,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.674321131826069</v>
+        <v>1.557601316582357</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.011863474117688</v>
@@ -14745,7 +14697,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.676602394047949</v>
+        <v>1.557477435482722</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.357445493520379</v>
@@ -14834,7 +14786,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.6754289530477</v>
+        <v>1.570177962671517</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.913420893770929</v>
@@ -14923,7 +14875,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.689655063220104</v>
+        <v>1.583695152036605</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.414004707642087</v>
@@ -15012,7 +14964,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.682898980531712</v>
+        <v>1.569722602131488</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.148380807900869</v>
@@ -15298,7 +15250,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.484698788273009</v>
+        <v>1.436624554698435</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.356833831161611</v>
@@ -15387,7 +15339,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.503547364414577</v>
+        <v>1.45331404332478</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.058655977560938</v>
@@ -15476,7 +15428,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.515742466641161</v>
+        <v>1.469740318002199</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.352082876397708</v>
@@ -15565,7 +15517,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.526583731430321</v>
+        <v>1.482511207381024</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.373724590339916</v>
@@ -15654,7 +15606,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.540891886976367</v>
+        <v>1.49391925422434</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.407437446731154</v>
@@ -15743,7 +15695,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.537639911470487</v>
+        <v>1.491182820060813</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.326343962541888</v>
@@ -15832,7 +15784,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.528088517719217</v>
+        <v>1.485336640822807</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.384439215268781</v>
@@ -15921,7 +15873,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.528192480314678</v>
+        <v>1.485972374663349</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.417924167166988</v>
@@ -16010,7 +15962,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.508029523985145</v>
+        <v>1.472872328699464</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.306733307222574</v>
@@ -16099,7 +16051,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.524869440123159</v>
+        <v>1.48355216061014</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.219257306179325</v>
@@ -16188,7 +16140,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.554003522769241</v>
+        <v>1.51630385777907</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.073605259766968</v>
@@ -16277,7 +16229,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.5762181751309</v>
+        <v>1.548779366006791</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.203000533676481</v>
@@ -16366,7 +16318,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.58424367811161</v>
+        <v>1.55863931558851</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.241025348032393</v>
@@ -16455,7 +16407,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.594248254763895</v>
+        <v>1.571596692225808</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.196774980650649</v>
@@ -16544,7 +16496,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.679817850070283</v>
+        <v>1.650305885464553</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.564699104065423</v>
@@ -16633,7 +16585,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.66717189328559</v>
+        <v>1.636183667156865</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.90298050065932</v>
@@ -16722,7 +16674,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.662610115643824</v>
+        <v>1.62906909486429</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.745185915175349</v>
@@ -16811,7 +16763,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.651292818844971</v>
+        <v>1.61418346401117</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.978335443579399</v>
@@ -16900,7 +16852,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.636937612005009</v>
+        <v>1.600755641589624</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.827301026988559</v>
@@ -16989,7 +16941,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.613995764507246</v>
+        <v>1.584118536983077</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.723086601850946</v>
@@ -17078,7 +17030,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.618495268787166</v>
+        <v>1.587479651563884</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.665733172417882</v>
@@ -17167,7 +17119,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.62285783489409</v>
+        <v>1.589582454126373</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.745472262589576</v>
@@ -17256,7 +17208,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.616059638988321</v>
+        <v>1.575738736039128</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.770884111647642</v>
@@ -17345,7 +17297,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.638025453567895</v>
+        <v>1.582029982981919</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.009438391606418</v>
@@ -17434,7 +17386,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.622434478912985</v>
+        <v>1.570235665567764</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.906391333673567</v>
@@ -17523,7 +17475,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.627932967999123</v>
+        <v>1.574801616809343</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.922368337995302</v>
@@ -17612,7 +17564,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.62040442055749</v>
+        <v>1.563652259244896</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.099376551974224</v>
@@ -17701,7 +17653,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.628315506812264</v>
+        <v>1.569356407001991</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.099765114174031</v>
@@ -17790,7 +17742,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.617743797132072</v>
+        <v>1.558570136741816</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.009468680643177</v>
@@ -17879,7 +17831,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.608088083823489</v>
+        <v>1.552175706386388</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.154759143389825</v>
@@ -17968,7 +17920,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.63042918864551</v>
+        <v>1.570954500337598</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.853878108391353</v>
@@ -18057,7 +18009,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.63212263527964</v>
+        <v>1.576348358820039</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.912168465350555</v>
@@ -18146,7 +18098,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.640125571647255</v>
+        <v>1.579772753477566</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.252465100452112</v>
@@ -18235,7 +18187,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.649280538109588</v>
+        <v>1.579005825812499</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.70154486851711</v>
@@ -18324,7 +18276,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.650837983098522</v>
+        <v>1.581311195237238</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.211769318127689</v>
@@ -18413,7 +18365,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.655986944945828</v>
+        <v>1.586553035721126</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.457114575332338</v>
@@ -18502,7 +18454,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.651237000309036</v>
+        <v>1.584267287188109</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.126786921182316</v>
@@ -18591,7 +18543,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.664061741952675</v>
+        <v>1.594824149386024</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.889848085536006</v>
@@ -18680,7 +18632,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.67626888888118</v>
+        <v>1.619645622504164</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.204629160867359</v>
@@ -18769,7 +18721,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.691443093604292</v>
+        <v>1.636103551730074</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.626665056976777</v>
@@ -18858,7 +18810,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.690142085149522</v>
+        <v>1.636453030299093</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.683005384757288</v>
@@ -18947,7 +18899,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.699766443904996</v>
+        <v>1.647041578008353</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.539742716727444</v>
@@ -19036,7 +18988,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.701018758132095</v>
+        <v>1.649223407477756</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.38691392773579</v>
@@ -19125,7 +19077,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.703338379173065</v>
+        <v>1.651731540989909</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.384339586985205</v>
@@ -19214,7 +19166,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.711076127958228</v>
+        <v>1.662245282517096</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.303138485770453</v>
@@ -19303,7 +19255,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.712612377659803</v>
+        <v>1.664684549707231</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.503201356950423</v>
@@ -19392,7 +19344,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.712403170865817</v>
+        <v>1.663324467082652</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.639455487829711</v>
@@ -19481,7 +19433,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.710744616693993</v>
+        <v>1.66115407957153</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.092857713908328</v>
@@ -19570,7 +19522,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.691085489852423</v>
+        <v>1.657807613306596</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.394002072474827</v>
@@ -19659,7 +19611,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.708051247903773</v>
+        <v>1.673640543157787</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.299874086874452</v>
@@ -19748,7 +19700,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.695189126367203</v>
+        <v>1.659778501731581</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.088838659717169</v>
@@ -20034,7 +19986,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.623170583811703</v>
+        <v>1.565881651240038</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.102968439068084</v>
@@ -20123,7 +20075,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.61471207680625</v>
+        <v>1.558374295891775</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.694103439028483</v>
@@ -20212,7 +20164,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.602065048863803</v>
+        <v>1.554598710899159</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.916714360400916</v>
@@ -20301,7 +20253,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.625668078051119</v>
+        <v>1.594677807632867</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.170443541741178</v>
@@ -20390,7 +20342,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.653124065673047</v>
+        <v>1.619692069507654</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.87168364978999</v>
@@ -20479,7 +20431,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.634598655620217</v>
+        <v>1.607591249738991</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.106140640627396</v>
@@ -20568,7 +20520,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.628442195193007</v>
+        <v>1.599978212797331</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.130780213521074</v>
@@ -20657,7 +20609,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.63384058947833</v>
+        <v>1.603331430656767</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.106313021750627</v>
@@ -20746,7 +20698,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.627231572506628</v>
+        <v>1.596953458526072</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.924621017766034</v>
@@ -20835,7 +20787,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.641456112994992</v>
+        <v>1.609484488084096</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.080377496163427</v>
@@ -20924,7 +20876,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.646581288267174</v>
+        <v>1.618996573502813</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.602227093816746</v>
@@ -21013,7 +20965,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.665869234895755</v>
+        <v>1.645994491524425</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.717111379281968</v>
@@ -21102,7 +21054,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.674919807769883</v>
+        <v>1.656056055382367</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.132237989718448</v>
@@ -21191,7 +21143,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.677595172591564</v>
+        <v>1.660128210044089</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.131034041304224</v>
@@ -21280,7 +21232,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.703938863884987</v>
+        <v>1.682863974995396</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.214573198555691</v>
@@ -21369,7 +21321,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.70945742704059</v>
+        <v>1.687796294871015</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.085705306560689</v>
@@ -21458,7 +21410,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.720425715399369</v>
+        <v>1.687210154291097</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.200254841199731</v>
@@ -21547,7 +21499,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.727753042001239</v>
+        <v>1.686566723045154</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.387094691271559</v>
@@ -21636,7 +21588,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.703368897324373</v>
+        <v>1.649064523343055</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.869266750685679</v>
@@ -21725,7 +21677,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.691735023062983</v>
+        <v>1.638570266688187</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.909300437834261</v>
@@ -21814,7 +21766,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.700755872129329</v>
+        <v>1.640322915191835</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.291194083481952</v>
@@ -21903,7 +21855,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.706238338735716</v>
+        <v>1.651612344551495</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.233948127488596</v>
@@ -21992,7 +21944,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.698956963949056</v>
+        <v>1.64181155350315</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.532141103410067</v>
@@ -22081,7 +22033,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.685559642216406</v>
+        <v>1.625744890039929</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.479574635430976</v>
@@ -22170,7 +22122,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.67091679702496</v>
+        <v>1.607703013198493</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.637404052094879</v>
@@ -22259,7 +22211,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.681590056010279</v>
+        <v>1.616537300414724</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.611682438306121</v>
@@ -22348,7 +22300,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.677845533930971</v>
+        <v>1.610489679469863</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.244375155115904</v>
@@ -22437,7 +22389,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.678846716600458</v>
+        <v>1.608663977346914</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.278863408853699</v>
@@ -22526,7 +22478,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.686157209935998</v>
+        <v>1.618632907585754</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.651215298449444</v>
@@ -22615,7 +22567,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.674364045479293</v>
+        <v>1.607201983695008</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.63913014284915</v>
@@ -22704,7 +22656,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.671763270244659</v>
+        <v>1.602847347747834</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.494217266946003</v>
@@ -22793,7 +22745,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.679670155260242</v>
+        <v>1.617344942113807</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.48274419121828</v>
@@ -22882,7 +22834,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.671506432534368</v>
+        <v>1.608390436043227</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.07854816409353</v>
@@ -22971,7 +22923,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.676859296240549</v>
+        <v>1.609464261320076</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.170778020099298</v>
@@ -23060,7 +23012,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.665377420492561</v>
+        <v>1.600692680105208</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.28664556766435</v>
@@ -23149,7 +23101,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.667078707565791</v>
+        <v>1.603615030321889</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.964218670349816</v>
@@ -23238,7 +23190,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.65819505430153</v>
+        <v>1.597039715445273</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.299303901212244</v>
@@ -23327,7 +23279,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.671536406608315</v>
+        <v>1.60593348226997</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.280611799114256</v>
@@ -23416,7 +23368,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.685837279735271</v>
+        <v>1.624934945085657</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.076875456727955</v>
@@ -23505,7 +23457,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.701364540277009</v>
+        <v>1.633783781742161</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.059340969614838</v>
@@ -23594,7 +23546,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.695314852682693</v>
+        <v>1.626736056615042</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.954241161131141</v>
@@ -23683,7 +23635,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.694524855470271</v>
+        <v>1.619091437380876</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.22328787747814</v>
@@ -23772,7 +23724,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.685583560157088</v>
+        <v>1.613460418757235</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.098981254150137</v>
@@ -23861,7 +23813,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.685855295757773</v>
+        <v>1.613735743296123</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.043317723566898</v>
@@ -23950,7 +23902,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.684608893589826</v>
+        <v>1.617265508669652</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.398621850022357</v>
@@ -24039,7 +23991,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.688417657088671</v>
+        <v>1.627468839422026</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.243943098657014</v>
@@ -24128,7 +24080,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.688457554537052</v>
+        <v>1.623272009930952</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.173689069672043</v>
@@ -24217,7 +24169,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.700732297216485</v>
+        <v>1.627115603129549</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.27244021536667</v>
@@ -24306,7 +24258,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.698827912804644</v>
+        <v>1.631231810221787</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.195423271051002</v>
@@ -24395,7 +24347,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.715074106798135</v>
+        <v>1.642470525535092</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.062034781544994</v>
@@ -24484,7 +24436,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.709205924433389</v>
+        <v>1.636702559246721</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.156179915435136</v>
@@ -24770,7 +24722,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.500440925639197</v>
+        <v>1.430771158620538</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.587236344856368</v>
@@ -24859,7 +24811,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.514417432337</v>
+        <v>1.441383335842751</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.187651792035481</v>
@@ -24948,7 +24900,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.497279264211614</v>
+        <v>1.433408597277712</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.439241480792673</v>
@@ -25037,7 +24989,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.501878331467463</v>
+        <v>1.443881219763003</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.495567273168068</v>
@@ -25126,7 +25078,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.512669379071887</v>
+        <v>1.456142586688515</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.590475775321154</v>
@@ -25215,7 +25167,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.508636301525025</v>
+        <v>1.452569384142088</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.542750427342794</v>
@@ -25304,7 +25256,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.502110250796841</v>
+        <v>1.447903533759928</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.464176430148738</v>
@@ -25393,7 +25345,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.506011307630541</v>
+        <v>1.453575409160722</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.53757996129512</v>
@@ -25482,7 +25434,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.482329880359599</v>
+        <v>1.438467715284758</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.605826491501147</v>
@@ -25571,7 +25523,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.484774486012038</v>
+        <v>1.440670663511182</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.241945314745461</v>
@@ -25660,7 +25612,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.501942893225785</v>
+        <v>1.457165048722269</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.187614780189742</v>
@@ -25749,7 +25701,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.516965407449842</v>
+        <v>1.480180908153842</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.310357993694947</v>
@@ -25838,7 +25790,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.528896573476301</v>
+        <v>1.495088502102092</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.415820179894896</v>
@@ -25927,7 +25879,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.534112245755203</v>
+        <v>1.496520188665734</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.326570232092521</v>
@@ -26016,7 +25968,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.585811118107884</v>
+        <v>1.542521433970609</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.427618398234243</v>
@@ -26105,7 +26057,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.581375950047831</v>
+        <v>1.538825796894292</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.640784602430339</v>
@@ -26194,7 +26146,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.581390580733391</v>
+        <v>1.525192681517361</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.588657177000678</v>
@@ -26283,7 +26235,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.631373581064678</v>
+        <v>1.554709385586838</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.105897737333215</v>
@@ -26372,7 +26324,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.628292332390475</v>
+        <v>1.548985305204401</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.080347021192718</v>
@@ -26461,7 +26413,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.626103340741694</v>
+        <v>1.540495709189158</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.736983920681663</v>
@@ -26550,7 +26502,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.633855928312853</v>
+        <v>1.547966038734355</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.922390143913703</v>
@@ -26639,7 +26591,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.636282077136771</v>
+        <v>1.552322393728626</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.268528972860632</v>
@@ -26728,7 +26680,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.632440353440546</v>
+        <v>1.541719959791799</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.870686569987626</v>
@@ -26817,7 +26769,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.660529046456938</v>
+        <v>1.545279290425852</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.259994314494341</v>
@@ -26906,7 +26858,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.671903566288491</v>
+        <v>1.549628879042711</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.474583093153741</v>
@@ -26995,7 +26947,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.685401464170423</v>
+        <v>1.560460865569161</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.881277060031382</v>
@@ -27084,7 +27036,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.683387784382297</v>
+        <v>1.555945711647108</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.30826443007079</v>
@@ -27173,7 +27125,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.678511174536155</v>
+        <v>1.553974482261689</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.050725222575173</v>
@@ -27262,7 +27214,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.671651775860658</v>
+        <v>1.552882551127795</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.095329006560118</v>
@@ -27351,7 +27303,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.671192191977021</v>
+        <v>1.549027742371014</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.341963531278075</v>
@@ -27440,7 +27392,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.676602506609084</v>
+        <v>1.552205803348398</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.499073511343554</v>
@@ -27529,7 +27481,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.684714270251343</v>
+        <v>1.568555258230924</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.295467248798404</v>
@@ -27618,7 +27570,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.685436520807288</v>
+        <v>1.566287580535237</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.383812369362492</v>
@@ -27707,7 +27659,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.678602552976806</v>
+        <v>1.548368695052568</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.04041110211154</v>
@@ -27796,7 +27748,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.679649723620432</v>
+        <v>1.550445634815345</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.634232971493333</v>
@@ -27885,7 +27837,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.673442475922686</v>
+        <v>1.545776153942767</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.619303932294924</v>
@@ -27974,7 +27926,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.673281297336649</v>
+        <v>1.541560590133902</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.973214639459079</v>
@@ -28063,7 +28015,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.675311072272496</v>
+        <v>1.545956406750414</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.329334291828372</v>
@@ -28152,7 +28104,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.682283801207214</v>
+        <v>1.566041694689296</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.262059766746062</v>
@@ -28241,7 +28193,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.687816311150423</v>
+        <v>1.574558889441193</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.470591660415725</v>
@@ -28330,7 +28282,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.690792521663238</v>
+        <v>1.573919778398641</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.347985058239273</v>
@@ -28419,7 +28371,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.688978544827001</v>
+        <v>1.572424447688935</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.378031424533854</v>
@@ -28508,7 +28460,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.674866951119695</v>
+        <v>1.562738079414149</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.555474918074648</v>
@@ -28597,7 +28549,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.676763331971327</v>
+        <v>1.564708354030396</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.605240373860413</v>
@@ -28686,7 +28638,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.683233432890026</v>
+        <v>1.573415249605933</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.30267159226161</v>
@@ -28775,7 +28727,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.691767497364923</v>
+        <v>1.588051820682225</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.399405491631154</v>
@@ -28864,7 +28816,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.697608491692904</v>
+        <v>1.591107790124721</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.404882941211473</v>
@@ -28953,7 +28905,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.701316959926052</v>
+        <v>1.592927459326902</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.065255431772129</v>
@@ -29042,7 +28994,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.691855362790654</v>
+        <v>1.605865056892135</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.307556056420337</v>
@@ -29131,7 +29083,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.701694340794494</v>
+        <v>1.613421108909817</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.415856288773263</v>
@@ -29220,7 +29172,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.709224361529276</v>
+        <v>1.60944206397248</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.512176374055542</v>
@@ -29506,7 +29458,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.380869061503664</v>
+        <v>1.368601780897768</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.52731525195471</v>
@@ -29595,7 +29547,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.409835974896794</v>
+        <v>1.392537904165094</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.104920493615005</v>
@@ -29684,7 +29636,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.402605685421506</v>
+        <v>1.384213211952277</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.493065850544765</v>
@@ -29773,7 +29725,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.424371989199902</v>
+        <v>1.414965279767371</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.527187438850779</v>
@@ -29862,7 +29814,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.466119260137625</v>
+        <v>1.458917270393007</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.480776851538589</v>
@@ -29951,7 +29903,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.445039231139802</v>
+        <v>1.43822251033711</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.761351730261904</v>
@@ -30040,7 +29992,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.437421094575133</v>
+        <v>1.433923831222272</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.600813818815458</v>
@@ -30129,7 +30081,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.458644616548296</v>
+        <v>1.453766657166663</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.423318027625135</v>
@@ -30218,7 +30170,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.442588273348802</v>
+        <v>1.440431578371577</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.758735753505154</v>
@@ -30307,7 +30259,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.458574025897305</v>
+        <v>1.455166003574435</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.760480312404246</v>
@@ -30396,7 +30348,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.443143748830238</v>
+        <v>1.446880706402374</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.338123671952872</v>
@@ -30485,7 +30437,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.458948474003179</v>
+        <v>1.464470168220287</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.420817007133422</v>
@@ -30574,7 +30526,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.465858341321045</v>
+        <v>1.470327602029609</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.686227179613346</v>
@@ -30663,7 +30615,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.46235087532715</v>
+        <v>1.4688315713964</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.50192453300721</v>
@@ -30752,7 +30704,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.476679354959692</v>
+        <v>1.485617127239627</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.478627378867041</v>
@@ -30841,7 +30793,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.481202478611426</v>
+        <v>1.491709720831367</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.627542956641536</v>
@@ -30930,7 +30882,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.493925258300318</v>
+        <v>1.503654805689106</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.395798624918525</v>
@@ -31019,7 +30971,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.501713975600476</v>
+        <v>1.514007948404191</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.673297100201873</v>
@@ -31108,7 +31060,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.475219213990805</v>
+        <v>1.483126923604676</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.669519846732221</v>
@@ -31197,7 +31149,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.448374608496918</v>
+        <v>1.455766204641507</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.224505971134407</v>
@@ -31286,7 +31238,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.464038834668536</v>
+        <v>1.470593180705442</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.704583513184092</v>
@@ -31375,7 +31327,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.47583029086948</v>
+        <v>1.479947816216778</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.581843816348258</v>
@@ -31464,7 +31416,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.464255449671689</v>
+        <v>1.464714747005215</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.717488245067726</v>
@@ -31553,7 +31505,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.454748534726566</v>
+        <v>1.453210580327203</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.568579458868562</v>
@@ -31642,7 +31594,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.371951572667981</v>
+        <v>1.373932770047413</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.931167316162894</v>
@@ -31731,7 +31683,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.379659890681005</v>
+        <v>1.381954933744327</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.908795753531398</v>
@@ -31820,7 +31772,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.377580357524018</v>
+        <v>1.379923916070309</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.918638870918229</v>
@@ -31909,7 +31861,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.374739138505472</v>
+        <v>1.37283260351761</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.923445436585237</v>
@@ -31998,7 +31950,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.387225761677732</v>
+        <v>1.389542882810403</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.907608464045592</v>
@@ -32087,7 +32039,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.382142244192519</v>
+        <v>1.382043936412065</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.925735583063588</v>
@@ -32176,7 +32128,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.390335210686598</v>
+        <v>1.38771560963896</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.912441224950897</v>
@@ -32265,7 +32217,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.386844759958122</v>
+        <v>1.385224481654835</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.912244549651003</v>
@@ -32354,7 +32306,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.386250608441453</v>
+        <v>1.384968438406961</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.92935620407849</v>
@@ -32443,7 +32395,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.398286607819402</v>
+        <v>1.393984313306416</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.841453781801567</v>
@@ -32532,7 +32484,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.380797938495639</v>
+        <v>1.378964381209101</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.908704420680675</v>
@@ -32621,7 +32573,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.383066405000145</v>
+        <v>1.380728968479149</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.932632099021552</v>
@@ -32710,7 +32662,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.363802993028939</v>
+        <v>1.360338837003948</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.936366331171759</v>
@@ -32799,7 +32751,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.38071884503913</v>
+        <v>1.378551650523464</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.878549174477611</v>
@@ -32888,7 +32840,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.387888393451949</v>
+        <v>1.387263637243377</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.833628026981946</v>
@@ -32977,7 +32929,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.484016648682973</v>
+        <v>1.471683311223117</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.484858568602205</v>
@@ -33066,7 +33018,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.474229880701485</v>
+        <v>1.461766790083764</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.316646421036437</v>
@@ -33155,7 +33107,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.483581219969513</v>
+        <v>1.473463368202837</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.492409749971526</v>
@@ -33244,7 +33196,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.47006901204365</v>
+        <v>1.459264333047852</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.199139700854904</v>
@@ -33333,7 +33285,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.464962801199691</v>
+        <v>1.455731616846451</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.287630425288365</v>
@@ -33422,7 +33374,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.460198606694169</v>
+        <v>1.453057299633684</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.369949469278241</v>
@@ -33511,7 +33463,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.46224402964429</v>
+        <v>1.456947074572259</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.271342709950303</v>
@@ -33600,7 +33552,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.46787963313321</v>
+        <v>1.458816946187032</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.220589530716111</v>
@@ -33689,7 +33641,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.483835561375072</v>
+        <v>1.470596649808525</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.254805796671871</v>
@@ -33778,7 +33730,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.463301007285791</v>
+        <v>1.454269489058896</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.337579103991086</v>
@@ -33867,7 +33819,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.495454757887035</v>
+        <v>1.485253589766263</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.363818230573809</v>
@@ -33956,7 +33908,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.470522792751788</v>
+        <v>1.457781967522979</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.357003472940457</v>
